--- a/Agranari/Roll20_Maps.xlsx
+++ b/Agranari/Roll20_Maps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f006ce66eba70ab/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiel\Documents\Stories\DnD-Stories\Agranari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C137D4F3-903A-427B-8FC5-07E6C13D8BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7D497-C5DE-4F34-B094-0EA6E90B6B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{B7DDA27F-F3E0-484E-8B04-77FFB9000AD4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B7DDA27F-F3E0-484E-8B04-77FFB9000AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Map</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Roll20 Import Settings</t>
+  </si>
+  <si>
+    <t>Forest Cave</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44641B44-BC2E-4992-9830-714897CB00A3}">
-  <dimension ref="A2:I4"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F4" sqref="F4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -526,6 +529,39 @@
       <c r="I4">
         <f>G4*70</f>
         <v>7070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>-720</v>
+      </c>
+      <c r="C5">
+        <v>-400</v>
+      </c>
+      <c r="D5">
+        <v>1440</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <f>D5/20</f>
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <f>E5/20</f>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f>F5*70</f>
+        <v>5040</v>
+      </c>
+      <c r="I5">
+        <f>G5*70</f>
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
